--- a/Team-Data/2014-15/3-16-2014-15.xlsx
+++ b/Team-Data/2014-15/3-16-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,46 +733,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" t="n">
         <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.791</v>
+        <v>0.788</v>
       </c>
       <c r="H2" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I2" t="n">
         <v>37.9</v>
       </c>
       <c r="J2" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="M2" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="N2" t="n">
         <v>0.383</v>
       </c>
       <c r="O2" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P2" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R2" t="n">
         <v>8.6</v>
@@ -723,7 +790,7 @@
         <v>14.4</v>
       </c>
       <c r="W2" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X2" t="n">
         <v>4.8</v>
@@ -732,19 +799,19 @@
         <v>4.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="AC2" t="n">
         <v>6.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -759,19 +826,19 @@
         <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
         <v>2</v>
@@ -780,16 +847,16 @@
         <v>14</v>
       </c>
       <c r="AP2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -813,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="n">
         <v>36</v>
       </c>
       <c r="G3" t="n">
-        <v>0.455</v>
+        <v>0.446</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -881,7 +948,7 @@
         <v>0.331</v>
       </c>
       <c r="O3" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="P3" t="n">
         <v>19.9</v>
@@ -890,10 +957,10 @@
         <v>0.752</v>
       </c>
       <c r="R3" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S3" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T3" t="n">
         <v>43.9</v>
@@ -908,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y3" t="n">
         <v>5.4</v>
@@ -920,22 +987,22 @@
         <v>18.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.7</v>
+        <v>-1</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -956,13 +1023,13 @@
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
         <v>18</v>
@@ -971,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -986,13 +1053,13 @@
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
         <v>25</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
         <v>29</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -1030,49 +1097,49 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="n">
         <v>38</v>
       </c>
       <c r="G4" t="n">
-        <v>0.415</v>
+        <v>0.406</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="J4" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M4" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N4" t="n">
         <v>0.325</v>
       </c>
       <c r="O4" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P4" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R4" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S4" t="n">
         <v>32</v>
@@ -1090,25 +1157,25 @@
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y4" t="n">
         <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.3</v>
+        <v>-3.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1123,16 +1190,16 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>20</v>
@@ -1150,7 +1217,7 @@
         <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS4" t="n">
         <v>19</v>
@@ -1162,28 +1229,28 @@
         <v>27</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
       </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ4" t="n">
         <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" t="n">
         <v>29</v>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="n">
-        <v>0.446</v>
+        <v>0.453</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.424</v>
+        <v>0.426</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
@@ -1242,64 +1309,64 @@
         <v>18.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.313</v>
+        <v>0.314</v>
       </c>
       <c r="O5" t="n">
         <v>17.2</v>
       </c>
       <c r="P5" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R5" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S5" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T5" t="n">
-        <v>44.1</v>
+        <v>44.3</v>
       </c>
       <c r="U5" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="V5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="W5" t="n">
         <v>5.9</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
         <v>5.3</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="AA5" t="n">
         <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.2</v>
+        <v>-1.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
@@ -1311,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
         <v>27</v>
@@ -1329,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
@@ -1338,10 +1405,10 @@
         <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1350,22 +1417,22 @@
         <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>1.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
@@ -1511,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
@@ -1526,16 +1593,16 @@
         <v>16</v>
       </c>
       <c r="AV6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -1576,40 +1643,40 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" t="n">
         <v>43</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.623</v>
+        <v>0.632</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J7" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L7" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="N7" t="n">
         <v>0.362</v>
       </c>
       <c r="O7" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P7" t="n">
         <v>24.3</v>
@@ -1618,16 +1685,16 @@
         <v>0.759</v>
       </c>
       <c r="R7" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S7" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="U7" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V7" t="n">
         <v>14</v>
@@ -1648,25 +1715,25 @@
         <v>20.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.4</v>
+        <v>103.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1675,7 +1742,7 @@
         <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1684,16 +1751,16 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>12</v>
@@ -1702,19 +1769,19 @@
         <v>21</v>
       </c>
       <c r="AT7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU7" t="n">
         <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
         <v>18</v>
       </c>
       <c r="AX7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
         <v>13</v>
@@ -1729,7 +1796,7 @@
         <v>6</v>
       </c>
       <c r="BC7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -1761,22 +1828,22 @@
         <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.642</v>
+        <v>0.627</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.461</v>
@@ -1791,13 +1858,13 @@
         <v>0.353</v>
       </c>
       <c r="O8" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P8" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.758</v>
+        <v>0.76</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
@@ -1809,7 +1876,7 @@
         <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="V8" t="n">
         <v>12.7</v>
@@ -1824,31 +1891,31 @@
         <v>3.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.9</v>
+        <v>104.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD8" t="n">
         <v>5</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1872,16 +1939,16 @@
         <v>20</v>
       </c>
       <c r="AP8" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>23</v>
@@ -1905,7 +1972,7 @@
         <v>12</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -1940,64 +2007,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
         <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="n">
-        <v>0.382</v>
+        <v>0.388</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J9" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="L9" t="n">
         <v>7.7</v>
       </c>
       <c r="M9" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.319</v>
+        <v>0.318</v>
       </c>
       <c r="O9" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P9" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R9" t="n">
         <v>12.2</v>
       </c>
       <c r="S9" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T9" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U9" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V9" t="n">
         <v>14.1</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X9" t="n">
         <v>4.7</v>
@@ -2009,19 +2076,19 @@
         <v>22.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF9" t="n">
         <v>23</v>
@@ -2030,16 +2097,16 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
         <v>3</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
@@ -2054,7 +2121,7 @@
         <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>24</v>
@@ -2063,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT9" t="n">
         <v>6</v>
@@ -2072,13 +2139,13 @@
         <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW9" t="n">
         <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
         <v>30</v>
@@ -2093,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2215,25 +2282,25 @@
         <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="n">
         <v>6</v>
       </c>
       <c r="AK10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM10" t="n">
         <v>11</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
@@ -2266,16 +2333,16 @@
         <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
       </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.803</v>
+        <v>0.8</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2322,7 +2389,7 @@
         <v>41.4</v>
       </c>
       <c r="J11" t="n">
-        <v>86.8</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K11" t="n">
         <v>0.477</v>
@@ -2334,25 +2401,25 @@
         <v>27.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.393</v>
+        <v>0.395</v>
       </c>
       <c r="O11" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P11" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R11" t="n">
         <v>10.2</v>
       </c>
       <c r="S11" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="T11" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U11" t="n">
         <v>27.1</v>
@@ -2361,7 +2428,7 @@
         <v>14.6</v>
       </c>
       <c r="W11" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X11" t="n">
         <v>6.2</v>
@@ -2379,10 +2446,10 @@
         <v>109.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2415,22 +2482,22 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
         <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.662</v>
+        <v>0.667</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>84.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.438</v>
@@ -2513,61 +2580,61 @@
         <v>11.5</v>
       </c>
       <c r="M12" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="P12" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.721</v>
+        <v>0.719</v>
       </c>
       <c r="R12" t="n">
         <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
         <v>21.9</v>
       </c>
       <c r="V12" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="W12" t="n">
         <v>9.6</v>
       </c>
       <c r="X12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
@@ -2576,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>19</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
@@ -2609,13 +2676,13 @@
         <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV12" t="n">
         <v>28</v>
@@ -2630,16 +2697,16 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="n">
-        <v>0.455</v>
+        <v>0.462</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,43 +2753,43 @@
         <v>36.4</v>
       </c>
       <c r="J13" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L13" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M13" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N13" t="n">
-        <v>0.338</v>
+        <v>0.341</v>
       </c>
       <c r="O13" t="n">
         <v>16.6</v>
       </c>
       <c r="P13" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q13" t="n">
         <v>0.765</v>
       </c>
       <c r="R13" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S13" t="n">
         <v>34.6</v>
       </c>
       <c r="T13" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U13" t="n">
         <v>21.5</v>
       </c>
       <c r="V13" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="W13" t="n">
         <v>6.2</v>
@@ -2740,13 +2807,13 @@
         <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
         <v>17</v>
@@ -2758,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2773,10 +2840,10 @@
         <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>19</v>
@@ -2785,10 +2852,10 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
@@ -2800,13 +2867,13 @@
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
@@ -2815,13 +2882,13 @@
         <v>16</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -2931,16 +2998,16 @@
         <v>5</v>
       </c>
       <c r="AE14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG14" t="n">
         <v>8</v>
       </c>
-      <c r="AF14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>7</v>
-      </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2973,7 +3040,7 @@
         <v>27</v>
       </c>
       <c r="AS14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
         <v>21</v>
@@ -2985,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
@@ -2994,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
         <v>4</v>
@@ -3003,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -3047,28 +3114,28 @@
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>86.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O15" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P15" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="Q15" t="n">
         <v>0.744</v>
@@ -3077,16 +3144,16 @@
         <v>11.7</v>
       </c>
       <c r="S15" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T15" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W15" t="n">
         <v>7.3</v>
@@ -3098,19 +3165,19 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
@@ -3134,31 +3201,31 @@
         <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM15" t="n">
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
         <v>13</v>
       </c>
       <c r="AT15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU15" t="n">
         <v>20</v>
@@ -3167,22 +3234,22 @@
         <v>5</v>
       </c>
       <c r="AW15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX15" t="n">
         <v>20</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AY15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB15" t="n">
         <v>18</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>22</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>17</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -3214,61 +3281,61 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" t="n">
         <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>0.701</v>
+        <v>0.697</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
       </c>
       <c r="I16" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J16" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K16" t="n">
         <v>0.458</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M16" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.333</v>
+        <v>0.334</v>
       </c>
       <c r="O16" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P16" t="n">
         <v>23.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R16" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="S16" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T16" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U16" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="V16" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W16" t="n">
         <v>8.800000000000001</v>
@@ -3280,19 +3347,19 @@
         <v>5.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
         <v>19</v>
@@ -3322,22 +3389,22 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>7</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT16" t="n">
         <v>20</v>
@@ -3355,16 +3422,16 @@
         <v>23</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
         <v>14</v>
       </c>
       <c r="BB16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -3396,55 +3463,55 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
         <v>36</v>
       </c>
       <c r="G17" t="n">
-        <v>0.455</v>
+        <v>0.446</v>
       </c>
       <c r="H17" t="n">
         <v>48.2</v>
       </c>
       <c r="I17" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J17" t="n">
         <v>76.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L17" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="O17" t="n">
         <v>18.1</v>
       </c>
       <c r="P17" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R17" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="T17" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="U17" t="n">
         <v>20.1</v>
@@ -3468,22 +3535,22 @@
         <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.3</v>
+        <v>-2.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
         <v>25</v>
@@ -3495,25 +3562,25 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
         <v>19</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3546,7 +3613,7 @@
         <v>8</v>
       </c>
       <c r="BB17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC17" t="n">
         <v>22</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3668,7 +3735,7 @@
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>18</v>
@@ -3677,7 +3744,7 @@
         <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3689,13 +3756,13 @@
         <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP18" t="n">
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
         <v>24</v>
@@ -3704,7 +3771,7 @@
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -3713,10 +3780,10 @@
         <v>29</v>
       </c>
       <c r="AW18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" t="n">
         <v>14</v>
       </c>
       <c r="F19" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" t="n">
-        <v>0.212</v>
+        <v>0.215</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3781,43 +3848,43 @@
         <v>84.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L19" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M19" t="n">
         <v>14.7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.332</v>
+        <v>0.328</v>
       </c>
       <c r="O19" t="n">
         <v>19.6</v>
       </c>
       <c r="P19" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R19" t="n">
         <v>12.2</v>
       </c>
       <c r="S19" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T19" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U19" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V19" t="n">
         <v>15</v>
       </c>
       <c r="W19" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X19" t="n">
         <v>3.9</v>
@@ -3826,19 +3893,19 @@
         <v>5.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3868,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3877,28 +3944,28 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT19" t="n">
         <v>24</v>
       </c>
       <c r="AU19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
         <v>9</v>
       </c>
       <c r="AX19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY19" t="n">
         <v>27</v>
@@ -3907,7 +3974,7 @@
         <v>10</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" t="n">
         <v>30</v>
       </c>
       <c r="G20" t="n">
-        <v>0.538</v>
+        <v>0.545</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,73 +4027,73 @@
         <v>38.1</v>
       </c>
       <c r="J20" t="n">
-        <v>82.90000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O20" t="n">
         <v>16.8</v>
       </c>
       <c r="P20" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.764</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
         <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="U20" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V20" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W20" t="n">
         <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
         <v>14</v>
@@ -4041,37 +4108,37 @@
         <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM20" t="n">
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
         <v>16</v>
       </c>
       <c r="AP20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AR20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU20" t="n">
         <v>10</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>11</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-9.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4223,16 +4290,16 @@
         <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,13 +4308,13 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT21" t="n">
         <v>29</v>
@@ -4256,7 +4323,7 @@
         <v>18</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW21" t="n">
         <v>23</v>
@@ -4265,13 +4332,13 @@
         <v>22</v>
       </c>
       <c r="AY21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ21" t="n">
         <v>27</v>
       </c>
       <c r="BA21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -4306,25 +4373,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" t="n">
         <v>37</v>
       </c>
       <c r="F22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" t="n">
-        <v>0.552</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I22" t="n">
         <v>38.4</v>
       </c>
       <c r="J22" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K22" t="n">
         <v>0.445</v>
@@ -4333,34 +4400,34 @@
         <v>7.5</v>
       </c>
       <c r="M22" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.332</v>
+        <v>0.333</v>
       </c>
       <c r="O22" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P22" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R22" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S22" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="T22" t="n">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="U22" t="n">
         <v>20.7</v>
       </c>
       <c r="V22" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W22" t="n">
         <v>7.2</v>
@@ -4369,22 +4436,22 @@
         <v>6</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.8</v>
+        <v>102.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4399,7 +4466,7 @@
         <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ22" t="n">
         <v>5</v>
@@ -4414,16 +4481,16 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
         <v>10</v>
       </c>
       <c r="AQ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4435,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV22" t="n">
         <v>21</v>
@@ -4447,16 +4514,16 @@
         <v>6</v>
       </c>
       <c r="AY22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>28</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB22" t="n">
         <v>9</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>8</v>
       </c>
       <c r="BC22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -4488,40 +4555,40 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" t="n">
         <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" t="n">
-        <v>0.313</v>
+        <v>0.309</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
         <v>0.356</v>
       </c>
       <c r="O23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="P23" t="n">
         <v>19.6</v>
@@ -4530,28 +4597,28 @@
         <v>0.723</v>
       </c>
       <c r="R23" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
         <v>7.8</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>21</v>
@@ -4560,13 +4627,13 @@
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.7</v>
+        <v>-5.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4581,16 +4648,16 @@
         <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4611,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
@@ -4620,19 +4687,19 @@
         <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" t="n">
-        <v>0.224</v>
+        <v>0.227</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4709,16 +4776,16 @@
         <v>24</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.674</v>
+        <v>0.676</v>
       </c>
       <c r="R24" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S24" t="n">
         <v>31.3</v>
       </c>
       <c r="T24" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U24" t="n">
         <v>20.6</v>
@@ -4727,28 +4794,28 @@
         <v>18.2</v>
       </c>
       <c r="W24" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X24" t="n">
         <v>6</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z24" t="n">
         <v>21.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB24" t="n">
         <v>91</v>
       </c>
       <c r="AC24" t="n">
-        <v>-9.9</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4781,7 +4848,7 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
         <v>11</v>
@@ -4796,10 +4863,10 @@
         <v>26</v>
       </c>
       <c r="AT24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY24" t="n">
         <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
@@ -4951,25 +5018,25 @@
         <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
         <v>8</v>
       </c>
       <c r="AM25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN25" t="n">
         <v>13</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP25" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR25" t="n">
         <v>14</v>
@@ -4981,7 +5048,7 @@
         <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV25" t="n">
         <v>25</v>
@@ -4999,13 +5066,13 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" t="n">
         <v>44</v>
       </c>
       <c r="F26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.677</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5052,10 +5119,10 @@
         <v>38.4</v>
       </c>
       <c r="J26" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L26" t="n">
         <v>10.1</v>
@@ -5064,7 +5131,7 @@
         <v>27.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O26" t="n">
         <v>16</v>
@@ -5073,13 +5140,13 @@
         <v>19.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.801</v>
+        <v>0.8</v>
       </c>
       <c r="R26" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S26" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="T26" t="n">
         <v>46</v>
@@ -5088,10 +5155,10 @@
         <v>22.2</v>
       </c>
       <c r="V26" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W26" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X26" t="n">
         <v>4.8</v>
@@ -5106,19 +5173,19 @@
         <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
       </c>
       <c r="AF26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG26" t="n">
         <v>4</v>
@@ -5127,13 +5194,13 @@
         <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ26" t="n">
         <v>8</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5148,13 +5215,13 @@
         <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5172,7 +5239,7 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5184,10 +5251,10 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="n">
         <v>22</v>
       </c>
       <c r="F27" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
@@ -5240,19 +5307,19 @@
         <v>0.45</v>
       </c>
       <c r="L27" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M27" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N27" t="n">
         <v>0.333</v>
       </c>
       <c r="O27" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="P27" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="Q27" t="n">
         <v>0.777</v>
@@ -5261,13 +5328,13 @@
         <v>11.1</v>
       </c>
       <c r="S27" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T27" t="n">
         <v>44.6</v>
       </c>
       <c r="U27" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V27" t="n">
         <v>16.6</v>
@@ -5282,25 +5349,25 @@
         <v>6.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
         <v>24.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.5</v>
+        <v>-4.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5342,7 +5409,7 @@
         <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5360,7 +5427,7 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -5398,67 +5465,67 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F28" t="n">
         <v>24</v>
       </c>
       <c r="G28" t="n">
-        <v>0.625</v>
+        <v>0.631</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
       </c>
       <c r="I28" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.364</v>
+        <v>0.367</v>
       </c>
       <c r="O28" t="n">
         <v>16.8</v>
       </c>
       <c r="P28" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R28" t="n">
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U28" t="n">
         <v>24.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W28" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y28" t="n">
         <v>4.6</v>
@@ -5470,13 +5537,13 @@
         <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
@@ -5485,7 +5552,7 @@
         <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5500,7 +5567,7 @@
         <v>6</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>14</v>
@@ -5509,13 +5576,13 @@
         <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
@@ -5524,19 +5591,19 @@
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU28" t="n">
         <v>5</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
         <v>11</v>
@@ -5551,7 +5618,7 @@
         <v>11</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -5580,19 +5647,19 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" t="n">
         <v>27</v>
       </c>
       <c r="G29" t="n">
-        <v>0.597</v>
+        <v>0.591</v>
       </c>
       <c r="H29" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I29" t="n">
         <v>38.1</v>
@@ -5601,7 +5668,7 @@
         <v>84.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L29" t="n">
         <v>8.800000000000001</v>
@@ -5610,25 +5677,25 @@
         <v>25.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O29" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P29" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R29" t="n">
         <v>10.9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U29" t="n">
         <v>20.8</v>
@@ -5637,7 +5704,7 @@
         <v>12.9</v>
       </c>
       <c r="W29" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X29" t="n">
         <v>4.5</v>
@@ -5649,19 +5716,19 @@
         <v>21.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.5</v>
+        <v>104.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
         <v>10</v>
@@ -5688,16 +5755,16 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
         <v>4</v>
       </c>
       <c r="AP29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR29" t="n">
         <v>15</v>
@@ -5706,7 +5773,7 @@
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
         <v>21</v>
@@ -5718,7 +5785,7 @@
         <v>15</v>
       </c>
       <c r="AX29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5727,13 +5794,13 @@
         <v>21</v>
       </c>
       <c r="BA29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB29" t="n">
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -5762,22 +5829,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" t="n">
         <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.455</v>
+        <v>0.446</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J30" t="n">
         <v>79</v>
@@ -5786,16 +5853,16 @@
         <v>0.45</v>
       </c>
       <c r="L30" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M30" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.349</v>
+        <v>0.344</v>
       </c>
       <c r="O30" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P30" t="n">
         <v>23</v>
@@ -5807,10 +5874,10 @@
         <v>11.9</v>
       </c>
       <c r="S30" t="n">
-        <v>32.2</v>
+        <v>31.9</v>
       </c>
       <c r="T30" t="n">
-        <v>44.1</v>
+        <v>43.8</v>
       </c>
       <c r="U30" t="n">
         <v>20.1</v>
@@ -5819,7 +5886,7 @@
         <v>15.4</v>
       </c>
       <c r="W30" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X30" t="n">
         <v>6</v>
@@ -5831,25 +5898,25 @@
         <v>19</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB30" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5867,13 +5934,13 @@
         <v>17</v>
       </c>
       <c r="AM30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN30" t="n">
         <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
         <v>15</v>
@@ -5885,31 +5952,31 @@
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV30" t="n">
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ30" t="n">
         <v>7</v>
       </c>
       <c r="BA30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
@@ -5944,19 +6011,19 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" t="n">
         <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.582</v>
+        <v>0.576</v>
       </c>
       <c r="H31" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I31" t="n">
         <v>38.5</v>
@@ -5971,10 +6038,10 @@
         <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.361</v>
+        <v>0.359</v>
       </c>
       <c r="O31" t="n">
         <v>15.8</v>
@@ -5983,7 +6050,7 @@
         <v>21.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.743</v>
+        <v>0.746</v>
       </c>
       <c r="R31" t="n">
         <v>10.5</v>
@@ -5998,7 +6065,7 @@
         <v>24.1</v>
       </c>
       <c r="V31" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W31" t="n">
         <v>7.4</v>
@@ -6007,22 +6074,22 @@
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA31" t="n">
         <v>19.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6043,7 +6110,7 @@
         <v>20</v>
       </c>
       <c r="AK31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6061,22 +6128,22 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS31" t="n">
         <v>8</v>
       </c>
       <c r="AT31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU31" t="n">
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
         <v>19</v>
@@ -6085,7 +6152,7 @@
         <v>17</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
         <v>20</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-16-2014-15</t>
+          <t>2015-03-16</t>
         </is>
       </c>
     </row>
